--- a/lab4/data.xlsx
+++ b/lab4/data.xlsx
@@ -7,8 +7,8 @@
     <workbookView windowWidth="18350" windowHeight="6880"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="x86" sheetId="1" r:id="rId1"/>
+    <sheet name="ARM" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>mpi</t>
   </si>
@@ -37,10 +37,22 @@
     <t>耗时：ms</t>
   </si>
   <si>
+    <t>行划分mpi</t>
+  </si>
+  <si>
+    <t>列划分mpi</t>
+  </si>
+  <si>
+    <t>非阻塞广播 + 通信与计算重叠的列划分mpi</t>
+  </si>
+  <si>
     <t>问题规模</t>
   </si>
   <si>
     <t>串行</t>
+  </si>
+  <si>
+    <t>第一次时间高很多，问题规模小于等于256</t>
   </si>
 </sst>
 </file>
@@ -656,12 +668,9 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -977,32 +986,41 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:M11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="O10" sqref="O10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
     <col min="1" max="3" width="9.54545454545454" style="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="F1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1">
         <v>4</v>
@@ -1010,12 +1028,30 @@
       <c r="D2" s="1">
         <v>8</v>
       </c>
+      <c r="F2" s="1">
+        <v>4</v>
+      </c>
+      <c r="G2" s="1">
+        <v>8</v>
+      </c>
+      <c r="I2" s="1">
+        <v>4</v>
+      </c>
+      <c r="J2" s="1">
+        <v>8</v>
+      </c>
+      <c r="L2" s="1">
+        <v>4</v>
+      </c>
+      <c r="M2" s="1">
+        <v>8</v>
+      </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>32</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" s="1">
         <v>0.04</v>
       </c>
       <c r="C3" s="1">
@@ -1024,12 +1060,30 @@
       <c r="D3" s="1">
         <v>0.13587</v>
       </c>
+      <c r="F3" s="1">
+        <v>0.7515</v>
+      </c>
+      <c r="G3" s="1">
+        <v>0.35295</v>
+      </c>
+      <c r="I3" s="1">
+        <v>0.05035</v>
+      </c>
+      <c r="J3" s="1">
+        <v>0.09182</v>
+      </c>
+      <c r="L3" s="1">
+        <v>0.07125</v>
+      </c>
+      <c r="M3" s="1">
+        <v>0.11466</v>
+      </c>
     </row>
-    <row r="4" spans="1:4">
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>64</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4" s="1">
         <v>0.325</v>
       </c>
       <c r="C4" s="1">
@@ -1038,12 +1092,30 @@
       <c r="D4" s="1">
         <v>0.22695</v>
       </c>
+      <c r="F4" s="1">
+        <v>0.11368</v>
+      </c>
+      <c r="G4" s="1">
+        <v>0.51324</v>
+      </c>
+      <c r="I4" s="1">
+        <v>0.18688</v>
+      </c>
+      <c r="J4" s="1">
+        <v>0.35129</v>
+      </c>
+      <c r="L4" s="1">
+        <v>0.2249</v>
+      </c>
+      <c r="M4" s="1">
+        <v>0.40274</v>
+      </c>
     </row>
-    <row r="5" spans="1:4">
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>128</v>
       </c>
-      <c r="B5" s="2">
+      <c r="B5" s="1">
         <v>2.188</v>
       </c>
       <c r="C5" s="1">
@@ -1052,12 +1124,30 @@
       <c r="D5" s="1">
         <v>0.39541</v>
       </c>
+      <c r="F5" s="1">
+        <v>0.32459</v>
+      </c>
+      <c r="G5" s="1">
+        <v>0.7774</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1.17546</v>
+      </c>
+      <c r="J5" s="1">
+        <v>2.37314</v>
+      </c>
+      <c r="L5" s="1">
+        <v>1.49608</v>
+      </c>
+      <c r="M5" s="1">
+        <v>2.40363</v>
+      </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>256</v>
       </c>
-      <c r="B6" s="2">
+      <c r="B6" s="1">
         <v>15.568</v>
       </c>
       <c r="C6" s="1">
@@ -1066,12 +1156,30 @@
       <c r="D6" s="1">
         <v>1.25733</v>
       </c>
+      <c r="F6" s="1">
+        <v>1.64915</v>
+      </c>
+      <c r="G6" s="1">
+        <v>2.1534</v>
+      </c>
+      <c r="I6" s="1">
+        <v>11.2041</v>
+      </c>
+      <c r="J6" s="1">
+        <v>24.4945</v>
+      </c>
+      <c r="L6" s="1">
+        <v>14.5375</v>
+      </c>
+      <c r="M6" s="1">
+        <v>18.8463</v>
+      </c>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>512</v>
       </c>
-      <c r="B7" s="2">
+      <c r="B7" s="1">
         <v>140.059</v>
       </c>
       <c r="C7" s="1">
@@ -1080,12 +1188,30 @@
       <c r="D7" s="1">
         <v>23.9866</v>
       </c>
+      <c r="F7" s="1">
+        <v>19.3078</v>
+      </c>
+      <c r="G7" s="1">
+        <v>47.1636</v>
+      </c>
+      <c r="I7" s="1">
+        <v>83.8299</v>
+      </c>
+      <c r="J7" s="1">
+        <v>174.963</v>
+      </c>
+      <c r="L7" s="1">
+        <v>93.3766</v>
+      </c>
+      <c r="M7" s="1">
+        <v>161.478</v>
+      </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>1024</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8" s="1">
         <v>1139.062</v>
       </c>
       <c r="C8" s="1">
@@ -1094,12 +1220,30 @@
       <c r="D8" s="1">
         <v>89.5096</v>
       </c>
+      <c r="F8" s="1">
+        <v>88.766</v>
+      </c>
+      <c r="G8" s="1">
+        <v>146.038</v>
+      </c>
+      <c r="I8" s="1">
+        <v>1021.04</v>
+      </c>
+      <c r="J8" s="1">
+        <v>2355.56</v>
+      </c>
+      <c r="L8" s="1">
+        <v>953.412</v>
+      </c>
+      <c r="M8" s="1">
+        <v>2369.55</v>
+      </c>
     </row>
-    <row r="9" spans="1:4">
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>2048</v>
       </c>
-      <c r="B9" s="2">
+      <c r="B9" s="1">
         <v>9196.672</v>
       </c>
       <c r="C9" s="1">
@@ -1107,6 +1251,29 @@
       </c>
       <c r="D9" s="1">
         <v>1497.68</v>
+      </c>
+      <c r="F9" s="1">
+        <v>1791</v>
+      </c>
+      <c r="G9" s="1">
+        <v>1872.93</v>
+      </c>
+      <c r="I9" s="1">
+        <v>11028.1</v>
+      </c>
+      <c r="J9" s="1">
+        <v>22480.7</v>
+      </c>
+      <c r="L9" s="1">
+        <v>10711.1</v>
+      </c>
+      <c r="M9" s="1">
+        <v>22562.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="1" t="s">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1122,7 +1289,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/lab4/data.xlsx
+++ b/lab4/data.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>mpi</t>
   </si>
@@ -44,6 +44,9 @@
   </si>
   <si>
     <t>非阻塞广播 + 通信与计算重叠的列划分mpi</t>
+  </si>
+  <si>
+    <t>二维划分mpi</t>
   </si>
   <si>
     <t>问题规模</t>
@@ -986,10 +989,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:M11"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O10" sqref="O10"/>
+      <selection activeCell="P12" sqref="P12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -998,7 +1001,7 @@
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1014,13 +1017,16 @@
       <c r="L1" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="O1" s="1" t="s">
+        <v>5</v>
+      </c>
     </row>
-    <row r="2" spans="1:13">
+    <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" s="1">
         <v>4</v>
@@ -1046,8 +1052,14 @@
       <c r="M2" s="1">
         <v>8</v>
       </c>
+      <c r="O2" s="1">
+        <v>4</v>
+      </c>
+      <c r="P2" s="1">
+        <v>16</v>
+      </c>
     </row>
-    <row r="3" spans="1:13">
+    <row r="3" spans="1:16">
       <c r="A3" s="1">
         <v>32</v>
       </c>
@@ -1078,8 +1090,14 @@
       <c r="M3" s="1">
         <v>0.11466</v>
       </c>
+      <c r="O3" s="1">
+        <v>0.0748</v>
+      </c>
+      <c r="P3" s="1">
+        <v>0.7304</v>
+      </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:16">
       <c r="A4" s="1">
         <v>64</v>
       </c>
@@ -1110,8 +1128,14 @@
       <c r="M4" s="1">
         <v>0.40274</v>
       </c>
+      <c r="O4" s="1">
+        <v>0.209</v>
+      </c>
+      <c r="P4" s="1">
+        <v>0.5936</v>
+      </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:16">
       <c r="A5" s="1">
         <v>128</v>
       </c>
@@ -1142,8 +1166,14 @@
       <c r="M5" s="1">
         <v>2.40363</v>
       </c>
+      <c r="O5" s="1">
+        <v>0.5811</v>
+      </c>
+      <c r="P5" s="1">
+        <v>1.082</v>
+      </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:16">
       <c r="A6" s="1">
         <v>256</v>
       </c>
@@ -1174,8 +1204,14 @@
       <c r="M6" s="1">
         <v>18.8463</v>
       </c>
+      <c r="O6" s="1">
+        <v>2.1731</v>
+      </c>
+      <c r="P6" s="1">
+        <v>3.5389</v>
+      </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:16">
       <c r="A7" s="1">
         <v>512</v>
       </c>
@@ -1206,8 +1242,14 @@
       <c r="M7" s="1">
         <v>161.478</v>
       </c>
+      <c r="O7" s="1">
+        <v>22.8967</v>
+      </c>
+      <c r="P7" s="1">
+        <v>42.1566</v>
+      </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:16">
       <c r="A8" s="1">
         <v>1024</v>
       </c>
@@ -1238,8 +1280,14 @@
       <c r="M8" s="1">
         <v>2369.55</v>
       </c>
+      <c r="O8" s="1">
+        <v>184.537</v>
+      </c>
+      <c r="P8" s="1">
+        <v>710.437</v>
+      </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:16">
       <c r="A9" s="1">
         <v>2048</v>
       </c>
@@ -1269,11 +1317,17 @@
       </c>
       <c r="M9" s="1">
         <v>22562.7</v>
+      </c>
+      <c r="O9" s="1">
+        <v>4448.07</v>
+      </c>
+      <c r="P9" s="1">
+        <v>11928.3</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/lab4/data.xlsx
+++ b/lab4/data.xlsx
@@ -29,12 +29,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
   <si>
-    <t>mpi</t>
+    <t>x86</t>
   </si>
   <si>
     <t>耗时：ms</t>
+  </si>
+  <si>
+    <t>mpi优化</t>
   </si>
   <si>
     <t>行划分mpi</t>
@@ -56,6 +59,24 @@
   </si>
   <si>
     <t>第一次时间高很多，问题规模小于等于256</t>
+  </si>
+  <si>
+    <t>mpi再优化</t>
+  </si>
+  <si>
+    <t>流水线算法</t>
+  </si>
+  <si>
+    <t>mpi</t>
+  </si>
+  <si>
+    <t>阻塞通信</t>
+  </si>
+  <si>
+    <t>非阻塞通信</t>
+  </si>
+  <si>
+    <t>单边通信</t>
   </si>
 </sst>
 </file>
@@ -989,10 +1010,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P11"/>
+  <dimension ref="A1:P31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P12" sqref="P12"/>
+      <selection activeCell="O15" sqref="O15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1008,25 +1029,28 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
       <c r="F1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="O1" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:16">
       <c r="A2" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="1">
         <v>4</v>
@@ -1327,7 +1351,361 @@
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="3:6">
+      <c r="C12" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="3:7">
+      <c r="C13" s="1">
+        <v>4</v>
+      </c>
+      <c r="D13" s="1">
         <v>8</v>
+      </c>
+      <c r="F13" s="1">
+        <v>4</v>
+      </c>
+      <c r="G13" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="3:7">
+      <c r="C14" s="1">
+        <v>0.6355</v>
+      </c>
+      <c r="D14" s="1">
+        <v>0.13463</v>
+      </c>
+      <c r="F14" s="1">
+        <v>0.06688</v>
+      </c>
+      <c r="G14" s="1">
+        <v>0.12669</v>
+      </c>
+    </row>
+    <row r="15" spans="3:7">
+      <c r="C15" s="1">
+        <v>0.09652</v>
+      </c>
+      <c r="D15" s="1">
+        <v>0.19447</v>
+      </c>
+      <c r="F15" s="1">
+        <v>0.09422</v>
+      </c>
+      <c r="G15" s="1">
+        <v>0.19062</v>
+      </c>
+    </row>
+    <row r="16" spans="3:7">
+      <c r="C16" s="1">
+        <v>0.37132</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.32198</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.30801</v>
+      </c>
+      <c r="G16" s="1">
+        <v>0.3758</v>
+      </c>
+    </row>
+    <row r="17" spans="3:7">
+      <c r="C17" s="1">
+        <v>1.83826</v>
+      </c>
+      <c r="D17" s="1">
+        <v>1.4319</v>
+      </c>
+      <c r="F17" s="1">
+        <v>1.57357</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1.42717</v>
+      </c>
+    </row>
+    <row r="18" spans="3:7">
+      <c r="C18" s="1">
+        <v>17.9586</v>
+      </c>
+      <c r="D18" s="1">
+        <v>16.0676</v>
+      </c>
+      <c r="F18" s="1">
+        <v>17.0387</v>
+      </c>
+      <c r="G18" s="1">
+        <v>16.2094</v>
+      </c>
+    </row>
+    <row r="19" spans="3:7">
+      <c r="C19" s="1">
+        <v>94.3352</v>
+      </c>
+      <c r="D19" s="1">
+        <v>77.4431</v>
+      </c>
+      <c r="F19" s="1">
+        <v>81.5665</v>
+      </c>
+      <c r="G19" s="1">
+        <v>99.9794</v>
+      </c>
+    </row>
+    <row r="20" spans="3:7">
+      <c r="C20" s="1">
+        <v>1842.47</v>
+      </c>
+      <c r="D20" s="1">
+        <v>1742.94</v>
+      </c>
+      <c r="F20" s="1">
+        <v>1747.96</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1865.19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
+      <c r="A23" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
+      <c r="A24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24" s="1">
+        <v>4</v>
+      </c>
+      <c r="D24" s="1">
+        <v>4</v>
+      </c>
+      <c r="E24" s="1">
+        <v>4</v>
+      </c>
+      <c r="F24" s="1">
+        <v>8</v>
+      </c>
+      <c r="G24" s="1">
+        <v>8</v>
+      </c>
+      <c r="H24" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
+      <c r="A25" s="1">
+        <v>32</v>
+      </c>
+      <c r="B25" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="C25" s="1">
+        <v>0.2771</v>
+      </c>
+      <c r="D25" s="1">
+        <v>0.2757</v>
+      </c>
+      <c r="E25" s="1">
+        <v>0.23209</v>
+      </c>
+      <c r="F25" s="1">
+        <v>0.13024</v>
+      </c>
+      <c r="G25" s="1">
+        <v>0.06359</v>
+      </c>
+      <c r="H25" s="1">
+        <v>0.61467</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
+      <c r="A26" s="1">
+        <v>64</v>
+      </c>
+      <c r="B26" s="1">
+        <v>0.325</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0.5358</v>
+      </c>
+      <c r="D26" s="1">
+        <v>0.5418</v>
+      </c>
+      <c r="E26" s="1">
+        <v>0.37538</v>
+      </c>
+      <c r="F26" s="1">
+        <v>0.1815</v>
+      </c>
+      <c r="G26" s="1">
+        <v>0.08335</v>
+      </c>
+      <c r="H26" s="1">
+        <v>1.00327</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
+      <c r="A27" s="1">
+        <v>128</v>
+      </c>
+      <c r="B27" s="1">
+        <v>2.188</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.22534</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.21872</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.76672</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.27678</v>
+      </c>
+      <c r="G27" s="1">
+        <v>0.24171</v>
+      </c>
+      <c r="H27" s="1">
+        <v>1.85688</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
+      <c r="A28" s="1">
+        <v>256</v>
+      </c>
+      <c r="B28" s="1">
+        <v>15.568</v>
+      </c>
+      <c r="C28" s="1">
+        <v>1.23964</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.90217</v>
+      </c>
+      <c r="E28" s="1">
+        <v>2.23544</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1.44167</v>
+      </c>
+      <c r="G28" s="1">
+        <v>1.16907</v>
+      </c>
+      <c r="H28" s="1">
+        <v>3.78825</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
+      <c r="A29" s="1">
+        <v>512</v>
+      </c>
+      <c r="B29" s="1">
+        <v>140.059</v>
+      </c>
+      <c r="C29" s="1">
+        <v>13.4963</v>
+      </c>
+      <c r="D29" s="1">
+        <v>13.733</v>
+      </c>
+      <c r="E29" s="1">
+        <v>15.0099</v>
+      </c>
+      <c r="F29" s="1">
+        <v>17.2328</v>
+      </c>
+      <c r="G29" s="1">
+        <v>11.5401</v>
+      </c>
+      <c r="H29" s="1">
+        <v>16.1673</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
+      <c r="A30" s="1">
+        <v>1024</v>
+      </c>
+      <c r="B30" s="1">
+        <v>1139.062</v>
+      </c>
+      <c r="C30" s="1">
+        <v>91.4767</v>
+      </c>
+      <c r="D30" s="1">
+        <v>84.2777</v>
+      </c>
+      <c r="E30" s="1">
+        <v>87.6803</v>
+      </c>
+      <c r="F30" s="1">
+        <v>77.4909</v>
+      </c>
+      <c r="G30" s="1">
+        <v>63.9211</v>
+      </c>
+      <c r="H30" s="1">
+        <v>92.4931</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
+      <c r="A31" s="1">
+        <v>2048</v>
+      </c>
+      <c r="B31" s="1">
+        <v>9196.672</v>
+      </c>
+      <c r="C31" s="1">
+        <v>1667.25</v>
+      </c>
+      <c r="D31" s="1">
+        <v>1244.76</v>
+      </c>
+      <c r="E31" s="1">
+        <v>1542.64</v>
+      </c>
+      <c r="F31" s="1">
+        <v>1412.93</v>
+      </c>
+      <c r="G31" s="1">
+        <v>972.468</v>
+      </c>
+      <c r="H31" s="1">
+        <v>1488.27</v>
       </c>
     </row>
   </sheetData>

--- a/lab4/data.xlsx
+++ b/lab4/data.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
   <si>
     <t>x86</t>
   </si>
@@ -77,25 +77,68 @@
   </si>
   <si>
     <t>单边通信</t>
+  </si>
+  <si>
+    <t>mpi_omp</t>
+  </si>
+  <si>
+    <t>mpi_omp_sse</t>
+  </si>
+  <si>
+    <t>向量减法采用SSE指令集双元素向量并行处理</t>
+  </si>
+  <si>
+    <t>mpi_sse</t>
+  </si>
+  <si>
+    <t>openmp2</t>
+  </si>
+  <si>
+    <t>openmp4</t>
+  </si>
+  <si>
+    <t>openmp8</t>
+  </si>
+  <si>
+    <t>2进程8线程</t>
+  </si>
+  <si>
+    <t>4进程4线程</t>
+  </si>
+  <si>
+    <t>8进程2线程</t>
+  </si>
+  <si>
+    <t>sse</t>
+  </si>
+  <si>
+    <t>8进程8线程</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="xr9">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0.000_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -562,141 +605,147 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1010,16 +1059,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P31"/>
+  <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O15" sqref="O15"/>
+    <sheetView tabSelected="1" topLeftCell="C31" workbookViewId="0">
+      <selection activeCell="P43" sqref="P43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="3" width="9.54545454545454" style="1"/>
-    <col min="4" max="16384" width="9" style="1"/>
+    <col min="1" max="2" width="9.54545454545454" style="1"/>
+    <col min="3" max="3" width="10.6363636363636" style="1"/>
+    <col min="4" max="4" width="9.54545454545454" style="1"/>
+    <col min="5" max="8" width="9" style="1"/>
+    <col min="9" max="9" width="9.54545454545454" style="1"/>
+    <col min="10" max="10" width="10.7272727272727" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19.0909090909091" style="1" customWidth="1"/>
+    <col min="12" max="12" width="9.54545454545454" style="1"/>
+    <col min="13" max="14" width="10.7272727272727" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.1818181818182" style="1" customWidth="1"/>
+    <col min="16" max="16" width="10.4545454545455" style="1" customWidth="1"/>
+    <col min="17" max="17" width="10.1818181818182" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:15">
@@ -1706,6 +1766,388 @@
       </c>
       <c r="H31" s="1">
         <v>1488.27</v>
+      </c>
+    </row>
+    <row r="35" spans="6:15">
+      <c r="F35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J35" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K35" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="O35" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="I36" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J36" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="O36" s="1">
+        <v>4</v>
+      </c>
+      <c r="P36" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" s="1">
+        <v>32</v>
+      </c>
+      <c r="B37" s="1">
+        <v>1.694</v>
+      </c>
+      <c r="C37" s="1">
+        <v>3.193</v>
+      </c>
+      <c r="D37" s="1">
+        <v>5.945</v>
+      </c>
+      <c r="E37" s="1">
+        <v>2.72004</v>
+      </c>
+      <c r="F37" s="1">
+        <v>2.26576</v>
+      </c>
+      <c r="G37" s="1">
+        <v>2.01642</v>
+      </c>
+      <c r="I37" s="1">
+        <v>2.63253</v>
+      </c>
+      <c r="J37" s="1">
+        <v>2.21323</v>
+      </c>
+      <c r="K37" s="1">
+        <v>2.07811</v>
+      </c>
+      <c r="N37" s="1">
+        <v>0.026</v>
+      </c>
+      <c r="O37" s="1">
+        <v>0.04207</v>
+      </c>
+      <c r="P37" s="1">
+        <v>0.12044</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38" s="1">
+        <v>64</v>
+      </c>
+      <c r="B38" s="1">
+        <v>3.451</v>
+      </c>
+      <c r="C38" s="1">
+        <v>6.01</v>
+      </c>
+      <c r="D38" s="1">
+        <v>11.808</v>
+      </c>
+      <c r="E38" s="1">
+        <v>5.15844</v>
+      </c>
+      <c r="F38" s="1">
+        <v>4.45805</v>
+      </c>
+      <c r="G38" s="1">
+        <v>4.15376</v>
+      </c>
+      <c r="I38" s="1">
+        <v>5.13586</v>
+      </c>
+      <c r="J38" s="1">
+        <v>4.34707</v>
+      </c>
+      <c r="K38" s="1">
+        <v>4.153</v>
+      </c>
+      <c r="N38" s="1">
+        <v>0.165</v>
+      </c>
+      <c r="O38" s="1">
+        <v>0.07737</v>
+      </c>
+      <c r="P38" s="1">
+        <v>0.20935</v>
+      </c>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" s="1">
+        <v>128</v>
+      </c>
+      <c r="B39" s="1">
+        <v>5.992</v>
+      </c>
+      <c r="C39" s="1">
+        <v>11.189</v>
+      </c>
+      <c r="D39" s="1">
+        <v>22.32</v>
+      </c>
+      <c r="E39" s="1">
+        <v>10.7541</v>
+      </c>
+      <c r="F39" s="1">
+        <v>9.24762</v>
+      </c>
+      <c r="G39" s="1">
+        <v>8.32174</v>
+      </c>
+      <c r="I39" s="1">
+        <v>12.493</v>
+      </c>
+      <c r="J39" s="1">
+        <v>9.09241</v>
+      </c>
+      <c r="K39" s="1">
+        <v>8.3347</v>
+      </c>
+      <c r="N39" s="1">
+        <v>1.17</v>
+      </c>
+      <c r="O39" s="1">
+        <v>0.1739</v>
+      </c>
+      <c r="P39" s="1">
+        <v>0.33273</v>
+      </c>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40" s="1">
+        <v>256</v>
+      </c>
+      <c r="B40" s="1">
+        <v>12.155</v>
+      </c>
+      <c r="C40" s="1">
+        <v>23.393</v>
+      </c>
+      <c r="D40" s="1">
+        <v>46.459</v>
+      </c>
+      <c r="E40" s="1">
+        <v>24.6882</v>
+      </c>
+      <c r="F40" s="1">
+        <v>20.688</v>
+      </c>
+      <c r="G40" s="1">
+        <v>17.0083</v>
+      </c>
+      <c r="I40" s="1">
+        <v>26.7355</v>
+      </c>
+      <c r="J40" s="1">
+        <v>20.4695</v>
+      </c>
+      <c r="K40" s="1">
+        <v>19.1948</v>
+      </c>
+      <c r="N40" s="1">
+        <v>8.959</v>
+      </c>
+      <c r="O40" s="1">
+        <v>0.83729</v>
+      </c>
+      <c r="P40" s="1">
+        <v>0.92847</v>
+      </c>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41" s="1">
+        <v>512</v>
+      </c>
+      <c r="B41" s="1">
+        <v>32.497</v>
+      </c>
+      <c r="C41" s="1">
+        <v>46.415</v>
+      </c>
+      <c r="D41" s="1">
+        <v>88.968</v>
+      </c>
+      <c r="E41" s="1">
+        <v>63.6434</v>
+      </c>
+      <c r="F41" s="1">
+        <v>59.5632</v>
+      </c>
+      <c r="G41" s="1">
+        <v>57.7311</v>
+      </c>
+      <c r="I41" s="1">
+        <v>59.9733</v>
+      </c>
+      <c r="J41" s="1">
+        <v>59.2489</v>
+      </c>
+      <c r="K41" s="1">
+        <v>74.433</v>
+      </c>
+      <c r="N41" s="1">
+        <v>70.05</v>
+      </c>
+      <c r="O41" s="1">
+        <v>10.1631</v>
+      </c>
+      <c r="P41" s="1">
+        <v>22.4934</v>
+      </c>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42" s="1">
+        <v>1024</v>
+      </c>
+      <c r="B42" s="1">
+        <v>123.953</v>
+      </c>
+      <c r="C42" s="1">
+        <v>120.592</v>
+      </c>
+      <c r="D42" s="1">
+        <v>193.422</v>
+      </c>
+      <c r="E42" s="1">
+        <v>139.497</v>
+      </c>
+      <c r="F42" s="1">
+        <v>165.072</v>
+      </c>
+      <c r="G42" s="1">
+        <v>135.342</v>
+      </c>
+      <c r="I42" s="1">
+        <v>146.901</v>
+      </c>
+      <c r="J42" s="1">
+        <v>147.553</v>
+      </c>
+      <c r="K42" s="1">
+        <v>172.209</v>
+      </c>
+      <c r="N42" s="1">
+        <v>522.676</v>
+      </c>
+      <c r="O42" s="1">
+        <v>63.8206</v>
+      </c>
+      <c r="P42" s="1">
+        <v>71.8745</v>
+      </c>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43" s="1">
+        <v>2048</v>
+      </c>
+      <c r="B43" s="1">
+        <v>1637.803</v>
+      </c>
+      <c r="C43" s="3">
+        <v>1500.11</v>
+      </c>
+      <c r="D43" s="1">
+        <v>1672.463</v>
+      </c>
+      <c r="E43" s="1">
+        <v>1649.82</v>
+      </c>
+      <c r="F43" s="1">
+        <v>1653.09</v>
+      </c>
+      <c r="G43" s="1">
+        <v>1532.71</v>
+      </c>
+      <c r="I43" s="1">
+        <v>1664.71</v>
+      </c>
+      <c r="J43" s="1">
+        <v>1533.25</v>
+      </c>
+      <c r="K43" s="1">
+        <v>1565.7</v>
+      </c>
+      <c r="N43" s="1">
+        <v>4362.003</v>
+      </c>
+      <c r="O43" s="1">
+        <v>1381.85</v>
+      </c>
+      <c r="P43" s="1">
+        <v>1345.65</v>
+      </c>
+    </row>
+    <row r="45" spans="7:7">
+      <c r="G45" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="46" spans="7:7">
+      <c r="G46" s="1">
+        <v>3.90295</v>
+      </c>
+    </row>
+    <row r="47" spans="7:7">
+      <c r="G47" s="1">
+        <v>9.55196</v>
+      </c>
+    </row>
+    <row r="48" spans="7:7">
+      <c r="G48" s="1">
+        <v>16.2785</v>
+      </c>
+    </row>
+    <row r="49" spans="7:7">
+      <c r="G49" s="1">
+        <v>39.6896</v>
+      </c>
+    </row>
+    <row r="50" spans="7:7">
+      <c r="G50" s="1">
+        <v>130.318</v>
+      </c>
+    </row>
+    <row r="51" spans="7:7">
+      <c r="G51" s="1">
+        <v>278.879</v>
+      </c>
+    </row>
+    <row r="52" spans="7:7">
+      <c r="G52" s="1">
+        <v>2058.96</v>
       </c>
     </row>
   </sheetData>

--- a/lab4/data.xlsx
+++ b/lab4/data.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
   <si>
     <t>x86</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>流水线算法</t>
+  </si>
+  <si>
+    <t>mpi_cache</t>
   </si>
   <si>
     <t>mpi</t>
@@ -1061,8 +1064,8 @@
   <sheetPr/>
   <dimension ref="A1:P52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C31" workbookViewId="0">
-      <selection activeCell="P43" sqref="P43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J14" sqref="J14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1414,15 +1417,18 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="3:6">
+    <row r="12" spans="3:12">
       <c r="C12" s="1" t="s">
         <v>10</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="3:7">
+      <c r="L12" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="3:13">
       <c r="C13" s="1">
         <v>4</v>
       </c>
@@ -1435,8 +1441,14 @@
       <c r="G13" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="3:7">
+      <c r="L13" s="1">
+        <v>4</v>
+      </c>
+      <c r="M13" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="3:13">
       <c r="C14" s="1">
         <v>0.6355</v>
       </c>
@@ -1449,8 +1461,14 @@
       <c r="G14" s="1">
         <v>0.12669</v>
       </c>
-    </row>
-    <row r="15" spans="3:7">
+      <c r="L14" s="1">
+        <v>0.04101</v>
+      </c>
+      <c r="M14" s="1">
+        <v>0.12524</v>
+      </c>
+    </row>
+    <row r="15" spans="3:13">
       <c r="C15" s="1">
         <v>0.09652</v>
       </c>
@@ -1463,8 +1481,14 @@
       <c r="G15" s="1">
         <v>0.19062</v>
       </c>
-    </row>
-    <row r="16" spans="3:7">
+      <c r="L15" s="1">
+        <v>0.07197</v>
+      </c>
+      <c r="M15" s="1">
+        <v>0.22356</v>
+      </c>
+    </row>
+    <row r="16" spans="3:13">
       <c r="C16" s="1">
         <v>0.37132</v>
       </c>
@@ -1477,8 +1501,14 @@
       <c r="G16" s="1">
         <v>0.3758</v>
       </c>
-    </row>
-    <row r="17" spans="3:7">
+      <c r="L16" s="1">
+        <v>0.19686</v>
+      </c>
+      <c r="M16" s="1">
+        <v>0.37041</v>
+      </c>
+    </row>
+    <row r="17" spans="3:13">
       <c r="C17" s="1">
         <v>1.83826</v>
       </c>
@@ -1491,8 +1521,14 @@
       <c r="G17" s="1">
         <v>1.42717</v>
       </c>
-    </row>
-    <row r="18" spans="3:7">
+      <c r="L17" s="1">
+        <v>1.20807</v>
+      </c>
+      <c r="M17" s="1">
+        <v>1.19155</v>
+      </c>
+    </row>
+    <row r="18" spans="3:13">
       <c r="C18" s="1">
         <v>17.9586</v>
       </c>
@@ -1505,8 +1541,14 @@
       <c r="G18" s="1">
         <v>16.2094</v>
       </c>
-    </row>
-    <row r="19" spans="3:7">
+      <c r="L18" s="1">
+        <v>13.0135</v>
+      </c>
+      <c r="M18" s="1">
+        <v>24.0312</v>
+      </c>
+    </row>
+    <row r="19" spans="3:13">
       <c r="C19" s="1">
         <v>94.3352</v>
       </c>
@@ -1519,8 +1561,14 @@
       <c r="G19" s="1">
         <v>99.9794</v>
       </c>
-    </row>
-    <row r="20" spans="3:7">
+      <c r="L19" s="1">
+        <v>86.7531</v>
+      </c>
+      <c r="M19" s="1">
+        <v>90.808</v>
+      </c>
+    </row>
+    <row r="20" spans="3:13">
       <c r="C20" s="1">
         <v>1842.47</v>
       </c>
@@ -1533,31 +1581,37 @@
       <c r="G20" s="1">
         <v>1865.19</v>
       </c>
+      <c r="L20" s="1">
+        <v>1516.68</v>
+      </c>
+      <c r="M20" s="1">
+        <v>1396.59</v>
+      </c>
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F23" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="G23" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="H23" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1770,16 +1824,16 @@
     </row>
     <row r="35" spans="6:15">
       <c r="F35" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="K35" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="O35" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:16">
@@ -1787,34 +1841,34 @@
         <v>7</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F36" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G36" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I36" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="J36" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="I36" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>24</v>
-      </c>
       <c r="K36" s="1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N36" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O36" s="1">
         <v>4</v>
@@ -2112,7 +2166,7 @@
     </row>
     <row r="45" spans="7:7">
       <c r="G45" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="46" spans="7:7">

--- a/lab4/data.xlsx
+++ b/lab4/data.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="18350" windowHeight="6880"/>
+    <workbookView windowWidth="24750" windowHeight="12080"/>
   </bookViews>
   <sheets>
     <sheet name="x86" sheetId="1" r:id="rId1"/>
-    <sheet name="ARM" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="31">
   <si>
     <t>x86</t>
   </si>
@@ -40,48 +40,48 @@
     <t>mpi优化</t>
   </si>
   <si>
+    <t>mpi再优化</t>
+  </si>
+  <si>
+    <t>问题规模</t>
+  </si>
+  <si>
+    <t>串行</t>
+  </si>
+  <si>
+    <t>第一次时间高很多，问题规模小于等于256</t>
+  </si>
+  <si>
+    <t>mpi</t>
+  </si>
+  <si>
+    <t>阻塞通信</t>
+  </si>
+  <si>
+    <t>非阻塞通信</t>
+  </si>
+  <si>
+    <t>单边通信</t>
+  </si>
+  <si>
+    <t>mpi_cache</t>
+  </si>
+  <si>
     <t>行划分mpi</t>
   </si>
   <si>
     <t>列划分mpi</t>
   </si>
   <si>
+    <t>流水线算法</t>
+  </si>
+  <si>
     <t>非阻塞广播 + 通信与计算重叠的列划分mpi</t>
   </si>
   <si>
     <t>二维划分mpi</t>
   </si>
   <si>
-    <t>问题规模</t>
-  </si>
-  <si>
-    <t>串行</t>
-  </si>
-  <si>
-    <t>第一次时间高很多，问题规模小于等于256</t>
-  </si>
-  <si>
-    <t>mpi再优化</t>
-  </si>
-  <si>
-    <t>流水线算法</t>
-  </si>
-  <si>
-    <t>mpi_cache</t>
-  </si>
-  <si>
-    <t>mpi</t>
-  </si>
-  <si>
-    <t>阻塞通信</t>
-  </si>
-  <si>
-    <t>非阻塞通信</t>
-  </si>
-  <si>
-    <t>单边通信</t>
-  </si>
-  <si>
     <t>mpi_omp</t>
   </si>
   <si>
@@ -116,6 +116,12 @@
   </si>
   <si>
     <t>8进程8线程</t>
+  </si>
+  <si>
+    <t>mpi_omp4进程4线程</t>
+  </si>
+  <si>
+    <t>mpi_omp_sse4进程4线程</t>
   </si>
 </sst>
 </file>
@@ -1062,10 +1068,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:P52"/>
+  <dimension ref="A1:U65"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J14" sqref="J14"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1073,7 +1079,9 @@
     <col min="1" max="2" width="9.54545454545454" style="1"/>
     <col min="3" max="3" width="10.6363636363636" style="1"/>
     <col min="4" max="4" width="9.54545454545454" style="1"/>
-    <col min="5" max="8" width="9" style="1"/>
+    <col min="5" max="6" width="9" style="1"/>
+    <col min="7" max="7" width="9.54545454545454" style="1"/>
+    <col min="8" max="8" width="9" style="1"/>
     <col min="9" max="9" width="9.54545454545454" style="1"/>
     <col min="10" max="10" width="10.7272727272727" style="1" customWidth="1"/>
     <col min="11" max="11" width="19.0909090909091" style="1" customWidth="1"/>
@@ -1085,7 +1093,7 @@
     <col min="18" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1095,58 +1103,34 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="I1" s="1" t="s">
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="B2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="O1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:16">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="C2" s="1">
+        <v>2</v>
+      </c>
+      <c r="D2" s="1">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1">
         <v>8</v>
       </c>
-      <c r="C2" s="1">
+      <c r="H2" s="1">
         <v>4</v>
       </c>
-      <c r="D2" s="1">
+      <c r="I2" s="1">
         <v>8</v>
       </c>
-      <c r="F2" s="1">
-        <v>4</v>
-      </c>
-      <c r="G2" s="1">
-        <v>8</v>
-      </c>
-      <c r="I2" s="1">
-        <v>4</v>
-      </c>
-      <c r="J2" s="1">
-        <v>8</v>
-      </c>
-      <c r="L2" s="1">
-        <v>4</v>
-      </c>
-      <c r="M2" s="1">
-        <v>8</v>
-      </c>
-      <c r="O2" s="1">
-        <v>4</v>
-      </c>
-      <c r="P2" s="1">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16">
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1">
         <v>32</v>
       </c>
@@ -1154,37 +1138,22 @@
         <v>0.04</v>
       </c>
       <c r="C3" s="1">
+        <v>0.02875</v>
+      </c>
+      <c r="D3" s="1">
         <v>0.0456</v>
       </c>
-      <c r="D3" s="1">
+      <c r="E3" s="1">
         <v>0.13587</v>
       </c>
-      <c r="F3" s="1">
-        <v>0.7515</v>
-      </c>
-      <c r="G3" s="1">
-        <v>0.35295</v>
+      <c r="H3" s="1">
+        <v>0.6355</v>
       </c>
       <c r="I3" s="1">
-        <v>0.05035</v>
-      </c>
-      <c r="J3" s="1">
-        <v>0.09182</v>
-      </c>
-      <c r="L3" s="1">
-        <v>0.07125</v>
-      </c>
-      <c r="M3" s="1">
-        <v>0.11466</v>
-      </c>
-      <c r="O3" s="1">
-        <v>0.0748</v>
-      </c>
-      <c r="P3" s="1">
-        <v>0.7304</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16">
+        <v>0.13463</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1">
         <v>64</v>
       </c>
@@ -1192,37 +1161,22 @@
         <v>0.325</v>
       </c>
       <c r="C4" s="1">
+        <v>0.05703</v>
+      </c>
+      <c r="D4" s="1">
         <v>0.07717</v>
       </c>
-      <c r="D4" s="1">
+      <c r="E4" s="1">
         <v>0.22695</v>
       </c>
-      <c r="F4" s="1">
-        <v>0.11368</v>
-      </c>
-      <c r="G4" s="1">
-        <v>0.51324</v>
+      <c r="H4" s="1">
+        <v>0.09652</v>
       </c>
       <c r="I4" s="1">
-        <v>0.18688</v>
-      </c>
-      <c r="J4" s="1">
-        <v>0.35129</v>
-      </c>
-      <c r="L4" s="1">
-        <v>0.2249</v>
-      </c>
-      <c r="M4" s="1">
-        <v>0.40274</v>
-      </c>
-      <c r="O4" s="1">
-        <v>0.209</v>
-      </c>
-      <c r="P4" s="1">
-        <v>0.5936</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16">
+        <v>0.19447</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1">
         <v>128</v>
       </c>
@@ -1230,37 +1184,22 @@
         <v>2.188</v>
       </c>
       <c r="C5" s="1">
+        <v>0.26067</v>
+      </c>
+      <c r="D5" s="1">
         <v>0.21366</v>
       </c>
-      <c r="D5" s="1">
+      <c r="E5" s="1">
         <v>0.39541</v>
       </c>
-      <c r="F5" s="1">
-        <v>0.32459</v>
-      </c>
-      <c r="G5" s="1">
-        <v>0.7774</v>
+      <c r="H5" s="1">
+        <v>0.37132</v>
       </c>
       <c r="I5" s="1">
-        <v>1.17546</v>
-      </c>
-      <c r="J5" s="1">
-        <v>2.37314</v>
-      </c>
-      <c r="L5" s="1">
-        <v>1.49608</v>
-      </c>
-      <c r="M5" s="1">
-        <v>2.40363</v>
-      </c>
-      <c r="O5" s="1">
-        <v>0.5811</v>
-      </c>
-      <c r="P5" s="1">
-        <v>1.082</v>
-      </c>
-    </row>
-    <row r="6" spans="1:16">
+        <v>0.32198</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1">
         <v>256</v>
       </c>
@@ -1268,37 +1207,22 @@
         <v>15.568</v>
       </c>
       <c r="C6" s="1">
+        <v>1.67832</v>
+      </c>
+      <c r="D6" s="1">
         <v>1.18161</v>
       </c>
-      <c r="D6" s="1">
+      <c r="E6" s="1">
         <v>1.25733</v>
       </c>
-      <c r="F6" s="1">
-        <v>1.64915</v>
-      </c>
-      <c r="G6" s="1">
-        <v>2.1534</v>
+      <c r="H6" s="1">
+        <v>1.83826</v>
       </c>
       <c r="I6" s="1">
-        <v>11.2041</v>
-      </c>
-      <c r="J6" s="1">
-        <v>24.4945</v>
-      </c>
-      <c r="L6" s="1">
-        <v>14.5375</v>
-      </c>
-      <c r="M6" s="1">
-        <v>18.8463</v>
-      </c>
-      <c r="O6" s="1">
-        <v>2.1731</v>
-      </c>
-      <c r="P6" s="1">
-        <v>3.5389</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16">
+        <v>1.4319</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1">
         <v>512</v>
       </c>
@@ -1306,37 +1230,22 @@
         <v>140.059</v>
       </c>
       <c r="C7" s="1">
+        <v>16.5675</v>
+      </c>
+      <c r="D7" s="1">
         <v>13.0117</v>
       </c>
-      <c r="D7" s="1">
+      <c r="E7" s="1">
         <v>23.9866</v>
       </c>
-      <c r="F7" s="1">
-        <v>19.3078</v>
-      </c>
-      <c r="G7" s="1">
-        <v>47.1636</v>
+      <c r="H7" s="1">
+        <v>17.9586</v>
       </c>
       <c r="I7" s="1">
-        <v>83.8299</v>
-      </c>
-      <c r="J7" s="1">
-        <v>174.963</v>
-      </c>
-      <c r="L7" s="1">
-        <v>93.3766</v>
-      </c>
-      <c r="M7" s="1">
-        <v>161.478</v>
-      </c>
-      <c r="O7" s="1">
-        <v>22.8967</v>
-      </c>
-      <c r="P7" s="1">
-        <v>42.1566</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16">
+        <v>16.0676</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1">
         <v>1024</v>
       </c>
@@ -1344,37 +1253,22 @@
         <v>1139.062</v>
       </c>
       <c r="C8" s="1">
+        <v>129.127</v>
+      </c>
+      <c r="D8" s="1">
         <v>80.6078</v>
       </c>
-      <c r="D8" s="1">
+      <c r="E8" s="1">
         <v>89.5096</v>
       </c>
-      <c r="F8" s="1">
-        <v>88.766</v>
-      </c>
-      <c r="G8" s="1">
-        <v>146.038</v>
+      <c r="H8" s="1">
+        <v>94.3352</v>
       </c>
       <c r="I8" s="1">
-        <v>1021.04</v>
-      </c>
-      <c r="J8" s="1">
-        <v>2355.56</v>
-      </c>
-      <c r="L8" s="1">
-        <v>953.412</v>
-      </c>
-      <c r="M8" s="1">
-        <v>2369.55</v>
-      </c>
-      <c r="O8" s="1">
-        <v>184.537</v>
-      </c>
-      <c r="P8" s="1">
-        <v>710.437</v>
-      </c>
-    </row>
-    <row r="9" spans="1:16">
+        <v>77.4431</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1">
         <v>2048</v>
       </c>
@@ -1382,826 +1276,1565 @@
         <v>9196.672</v>
       </c>
       <c r="C9" s="1">
+        <v>1837.26</v>
+      </c>
+      <c r="D9" s="1">
         <v>1644.52</v>
       </c>
-      <c r="D9" s="1">
+      <c r="E9" s="1">
         <v>1497.68</v>
       </c>
-      <c r="F9" s="1">
-        <v>1791</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1872.93</v>
+      <c r="H9" s="1">
+        <v>1842.47</v>
       </c>
       <c r="I9" s="1">
-        <v>11028.1</v>
-      </c>
-      <c r="J9" s="1">
-        <v>22480.7</v>
-      </c>
-      <c r="L9" s="1">
-        <v>10711.1</v>
-      </c>
-      <c r="M9" s="1">
-        <v>22562.7</v>
-      </c>
-      <c r="O9" s="1">
-        <v>4448.07</v>
-      </c>
-      <c r="P9" s="1">
-        <v>11928.3</v>
+        <v>1742.94</v>
       </c>
     </row>
     <row r="11" spans="1:1">
       <c r="A11" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="14:21">
+      <c r="N13" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="O13" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Q13" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R13" s="1" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="3:12">
-      <c r="C12" s="1" t="s">
+      <c r="S13" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="T13" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="U13" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="3:21">
+      <c r="C14" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="N14" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="O14" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="P14" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>8</v>
+      </c>
+      <c r="R14" s="1">
+        <v>4</v>
+      </c>
+      <c r="S14" s="1">
+        <v>8</v>
+      </c>
+      <c r="T14" s="1">
+        <v>4</v>
+      </c>
+      <c r="U14" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21">
+      <c r="A15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="1">
+        <v>4</v>
+      </c>
+      <c r="D15" s="1">
+        <v>8</v>
+      </c>
+      <c r="E15" s="1">
+        <v>4</v>
+      </c>
+      <c r="F15" s="1">
+        <v>8</v>
+      </c>
+      <c r="N15" s="1">
+        <v>32</v>
+      </c>
+      <c r="O15" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="P15" s="1">
+        <v>0.2771</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>0.13024</v>
+      </c>
+      <c r="R15" s="1">
+        <v>0.2757</v>
+      </c>
+      <c r="S15" s="1">
+        <v>0.06359</v>
+      </c>
+      <c r="T15" s="1">
+        <v>0.23209</v>
+      </c>
+      <c r="U15" s="1">
+        <v>0.61467</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
+      <c r="A16" s="1">
+        <v>32</v>
+      </c>
+      <c r="B16" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="C16" s="1">
+        <v>0.0456</v>
+      </c>
+      <c r="D16" s="1">
+        <v>0.13587</v>
+      </c>
+      <c r="E16" s="1">
+        <v>0.04101</v>
+      </c>
+      <c r="F16" s="1">
+        <v>0.12524</v>
+      </c>
+      <c r="N16" s="1">
+        <v>64</v>
+      </c>
+      <c r="O16" s="1">
+        <v>0.325</v>
+      </c>
+      <c r="P16" s="1">
+        <v>0.5358</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>0.1815</v>
+      </c>
+      <c r="R16" s="1">
+        <v>0.5418</v>
+      </c>
+      <c r="S16" s="1">
+        <v>0.08335</v>
+      </c>
+      <c r="T16" s="1">
+        <v>0.37538</v>
+      </c>
+      <c r="U16" s="1">
+        <v>1.00327</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="A17" s="1">
+        <v>64</v>
+      </c>
+      <c r="B17" s="1">
+        <v>0.325</v>
+      </c>
+      <c r="C17" s="1">
+        <v>0.07717</v>
+      </c>
+      <c r="D17" s="1">
+        <v>0.22695</v>
+      </c>
+      <c r="E17" s="1">
+        <v>0.07197</v>
+      </c>
+      <c r="F17" s="1">
+        <v>0.22356</v>
+      </c>
+      <c r="N17" s="1">
+        <v>128</v>
+      </c>
+      <c r="O17" s="1">
+        <v>2.188</v>
+      </c>
+      <c r="P17" s="1">
+        <v>0.22534</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>0.27678</v>
+      </c>
+      <c r="R17" s="1">
+        <v>0.21872</v>
+      </c>
+      <c r="S17" s="1">
+        <v>0.24171</v>
+      </c>
+      <c r="T17" s="1">
+        <v>0.76672</v>
+      </c>
+      <c r="U17" s="1">
+        <v>1.85688</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21">
+      <c r="A18" s="1">
+        <v>128</v>
+      </c>
+      <c r="B18" s="1">
+        <v>2.188</v>
+      </c>
+      <c r="C18" s="1">
+        <v>0.21366</v>
+      </c>
+      <c r="D18" s="1">
+        <v>0.39541</v>
+      </c>
+      <c r="E18" s="1">
+        <v>0.19686</v>
+      </c>
+      <c r="F18" s="1">
+        <v>0.37041</v>
+      </c>
+      <c r="N18" s="1">
+        <v>256</v>
+      </c>
+      <c r="O18" s="1">
+        <v>15.568</v>
+      </c>
+      <c r="P18" s="1">
+        <v>1.23964</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>1.44167</v>
+      </c>
+      <c r="R18" s="1">
+        <v>0.90217</v>
+      </c>
+      <c r="S18" s="1">
+        <v>1.16907</v>
+      </c>
+      <c r="T18" s="1">
+        <v>2.23544</v>
+      </c>
+      <c r="U18" s="1">
+        <v>3.78825</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21">
+      <c r="A19" s="1">
+        <v>256</v>
+      </c>
+      <c r="B19" s="1">
+        <v>15.568</v>
+      </c>
+      <c r="C19" s="1">
+        <v>1.18161</v>
+      </c>
+      <c r="D19" s="1">
+        <v>1.25733</v>
+      </c>
+      <c r="E19" s="1">
+        <v>1.20807</v>
+      </c>
+      <c r="F19" s="1">
+        <v>1.19155</v>
+      </c>
+      <c r="N19" s="1">
+        <v>512</v>
+      </c>
+      <c r="O19" s="1">
+        <v>140.059</v>
+      </c>
+      <c r="P19" s="1">
+        <v>13.4963</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>17.2328</v>
+      </c>
+      <c r="R19" s="1">
+        <v>13.733</v>
+      </c>
+      <c r="S19" s="1">
+        <v>11.5401</v>
+      </c>
+      <c r="T19" s="1">
+        <v>15.0099</v>
+      </c>
+      <c r="U19" s="1">
+        <v>16.1673</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="A20" s="1">
+        <v>512</v>
+      </c>
+      <c r="B20" s="1">
+        <v>140.059</v>
+      </c>
+      <c r="C20" s="1">
+        <v>13.0117</v>
+      </c>
+      <c r="D20" s="1">
+        <v>23.9866</v>
+      </c>
+      <c r="E20" s="1">
+        <v>13.0135</v>
+      </c>
+      <c r="F20" s="1">
+        <v>24.0312</v>
+      </c>
+      <c r="N20" s="1">
+        <v>1024</v>
+      </c>
+      <c r="O20" s="1">
+        <v>1139.062</v>
+      </c>
+      <c r="P20" s="1">
+        <v>91.4767</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>77.4909</v>
+      </c>
+      <c r="R20" s="1">
+        <v>84.2777</v>
+      </c>
+      <c r="S20" s="1">
+        <v>63.9211</v>
+      </c>
+      <c r="T20" s="1">
+        <v>87.6803</v>
+      </c>
+      <c r="U20" s="1">
+        <v>92.4931</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21">
+      <c r="A21" s="1">
+        <v>1024</v>
+      </c>
+      <c r="B21" s="1">
+        <v>1139.062</v>
+      </c>
+      <c r="C21" s="1">
+        <v>80.6078</v>
+      </c>
+      <c r="D21" s="1">
+        <v>89.5096</v>
+      </c>
+      <c r="E21" s="1">
+        <v>86.7531</v>
+      </c>
+      <c r="F21" s="1">
+        <v>90.808</v>
+      </c>
+      <c r="N21" s="1">
+        <v>2048</v>
+      </c>
+      <c r="O21" s="1">
+        <v>9196.672</v>
+      </c>
+      <c r="P21" s="1">
+        <v>1667.25</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>1412.93</v>
+      </c>
+      <c r="R21" s="1">
+        <v>1244.76</v>
+      </c>
+      <c r="S21" s="1">
+        <v>972.468</v>
+      </c>
+      <c r="T21" s="1">
+        <v>1542.64</v>
+      </c>
+      <c r="U21" s="1">
+        <v>1488.27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="1">
+        <v>2048</v>
+      </c>
+      <c r="B22" s="1">
+        <v>9196.672</v>
+      </c>
+      <c r="C22" s="1">
+        <v>1644.52</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1497.68</v>
+      </c>
+      <c r="E22" s="1">
+        <v>1516.68</v>
+      </c>
+      <c r="F22" s="1">
+        <v>1396.59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
+      <c r="A25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="3:13">
-      <c r="C13" s="1">
+      <c r="E25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G25" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="J25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="L25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="P25" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="S25" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="1">
+      <c r="B26" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C26" s="1">
+        <v>4</v>
+      </c>
+      <c r="D26" s="1">
         <v>8</v>
       </c>
-      <c r="F13" s="1">
+      <c r="E26" s="1">
         <v>4</v>
       </c>
-      <c r="G13" s="1">
+      <c r="F26" s="1">
         <v>8</v>
       </c>
-      <c r="L13" s="1">
+      <c r="G26" s="1">
         <v>4</v>
       </c>
-      <c r="M13" s="1">
+      <c r="H26" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="3:13">
-      <c r="C14" s="1">
-        <v>0.6355</v>
-      </c>
-      <c r="D14" s="1">
-        <v>0.13463</v>
-      </c>
-      <c r="F14" s="1">
+      <c r="J26" s="1">
+        <v>4</v>
+      </c>
+      <c r="K26" s="1">
+        <v>8</v>
+      </c>
+      <c r="L26" s="1">
+        <v>4</v>
+      </c>
+      <c r="M26" s="1">
+        <v>16</v>
+      </c>
+      <c r="P26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>4</v>
+      </c>
+      <c r="R26" s="1">
+        <v>8</v>
+      </c>
+      <c r="S26" s="1">
+        <v>4</v>
+      </c>
+      <c r="T26" s="1">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" s="1">
+        <v>32</v>
+      </c>
+      <c r="B27" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="C27" s="1">
+        <v>0.07515</v>
+      </c>
+      <c r="D27" s="1">
+        <v>0.35295</v>
+      </c>
+      <c r="E27" s="1">
+        <v>0.05035</v>
+      </c>
+      <c r="F27" s="1">
+        <v>0.09182</v>
+      </c>
+      <c r="G27" s="1">
         <v>0.06688</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H27" s="1">
         <v>0.12669</v>
       </c>
-      <c r="L14" s="1">
-        <v>0.04101</v>
-      </c>
-      <c r="M14" s="1">
-        <v>0.12524</v>
-      </c>
-    </row>
-    <row r="15" spans="3:13">
-      <c r="C15" s="1">
-        <v>0.09652</v>
-      </c>
-      <c r="D15" s="1">
-        <v>0.19447</v>
-      </c>
-      <c r="F15" s="1">
+      <c r="J27" s="1">
+        <v>0.07125</v>
+      </c>
+      <c r="K27" s="1">
+        <v>0.11466</v>
+      </c>
+      <c r="L27" s="1">
+        <v>0.0748</v>
+      </c>
+      <c r="M27" s="1">
+        <v>0.7304</v>
+      </c>
+      <c r="P27" s="1">
+        <v>32</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>0.05035</v>
+      </c>
+      <c r="R27" s="1">
+        <v>0.09182</v>
+      </c>
+      <c r="S27" s="1">
+        <v>0.07125</v>
+      </c>
+      <c r="T27" s="1">
+        <v>0.11466</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" s="1">
+        <v>64</v>
+      </c>
+      <c r="B28" s="1">
+        <v>0.325</v>
+      </c>
+      <c r="C28" s="1">
+        <v>0.11368</v>
+      </c>
+      <c r="D28" s="1">
+        <v>0.51324</v>
+      </c>
+      <c r="E28" s="1">
+        <v>0.18688</v>
+      </c>
+      <c r="F28" s="1">
+        <v>0.35129</v>
+      </c>
+      <c r="G28" s="1">
         <v>0.09422</v>
       </c>
-      <c r="G15" s="1">
+      <c r="H28" s="1">
         <v>0.19062</v>
       </c>
-      <c r="L15" s="1">
-        <v>0.07197</v>
-      </c>
-      <c r="M15" s="1">
-        <v>0.22356</v>
-      </c>
-    </row>
-    <row r="16" spans="3:13">
-      <c r="C16" s="1">
-        <v>0.37132</v>
-      </c>
-      <c r="D16" s="1">
-        <v>0.32198</v>
-      </c>
-      <c r="F16" s="1">
+      <c r="J28" s="1">
+        <v>0.2249</v>
+      </c>
+      <c r="K28" s="1">
+        <v>0.40274</v>
+      </c>
+      <c r="L28" s="1">
+        <v>0.209</v>
+      </c>
+      <c r="M28" s="1">
+        <v>0.5936</v>
+      </c>
+      <c r="P28" s="1">
+        <v>64</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>0.18688</v>
+      </c>
+      <c r="R28" s="1">
+        <v>0.35129</v>
+      </c>
+      <c r="S28" s="1">
+        <v>0.2249</v>
+      </c>
+      <c r="T28" s="1">
+        <v>0.40274</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" s="1">
+        <v>128</v>
+      </c>
+      <c r="B29" s="1">
+        <v>2.188</v>
+      </c>
+      <c r="C29" s="1">
+        <v>0.32459</v>
+      </c>
+      <c r="D29" s="1">
+        <v>0.7774</v>
+      </c>
+      <c r="E29" s="1">
+        <v>1.17546</v>
+      </c>
+      <c r="F29" s="1">
+        <v>2.37314</v>
+      </c>
+      <c r="G29" s="1">
         <v>0.30801</v>
       </c>
-      <c r="G16" s="1">
+      <c r="H29" s="1">
         <v>0.3758</v>
       </c>
-      <c r="L16" s="1">
-        <v>0.19686</v>
-      </c>
-      <c r="M16" s="1">
-        <v>0.37041</v>
-      </c>
-    </row>
-    <row r="17" spans="3:13">
-      <c r="C17" s="1">
-        <v>1.83826</v>
-      </c>
-      <c r="D17" s="1">
-        <v>1.4319</v>
-      </c>
-      <c r="F17" s="1">
+      <c r="J29" s="1">
+        <v>1.49608</v>
+      </c>
+      <c r="K29" s="1">
+        <v>2.40363</v>
+      </c>
+      <c r="L29" s="1">
+        <v>0.5811</v>
+      </c>
+      <c r="M29" s="1">
+        <v>1.082</v>
+      </c>
+      <c r="P29" s="1">
+        <v>128</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>1.17546</v>
+      </c>
+      <c r="R29" s="1">
+        <v>2.37314</v>
+      </c>
+      <c r="S29" s="1">
+        <v>1.49608</v>
+      </c>
+      <c r="T29" s="1">
+        <v>2.40363</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" s="1">
+        <v>256</v>
+      </c>
+      <c r="B30" s="1">
+        <v>15.568</v>
+      </c>
+      <c r="C30" s="1">
+        <v>1.64915</v>
+      </c>
+      <c r="D30" s="1">
+        <v>2.1534</v>
+      </c>
+      <c r="E30" s="1">
+        <v>11.2041</v>
+      </c>
+      <c r="F30" s="1">
+        <v>24.4945</v>
+      </c>
+      <c r="G30" s="1">
         <v>1.57357</v>
       </c>
-      <c r="G17" s="1">
+      <c r="H30" s="1">
         <v>1.42717</v>
       </c>
-      <c r="L17" s="1">
-        <v>1.20807</v>
-      </c>
-      <c r="M17" s="1">
-        <v>1.19155</v>
-      </c>
-    </row>
-    <row r="18" spans="3:13">
-      <c r="C18" s="1">
-        <v>17.9586</v>
-      </c>
-      <c r="D18" s="1">
-        <v>16.0676</v>
-      </c>
-      <c r="F18" s="1">
+      <c r="J30" s="1">
+        <v>14.5375</v>
+      </c>
+      <c r="K30" s="1">
+        <v>18.8463</v>
+      </c>
+      <c r="L30" s="1">
+        <v>2.1731</v>
+      </c>
+      <c r="M30" s="1">
+        <v>3.5389</v>
+      </c>
+      <c r="P30" s="1">
+        <v>256</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>11.2041</v>
+      </c>
+      <c r="R30" s="1">
+        <v>24.4945</v>
+      </c>
+      <c r="S30" s="1">
+        <v>14.5375</v>
+      </c>
+      <c r="T30" s="1">
+        <v>18.8463</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" s="1">
+        <v>512</v>
+      </c>
+      <c r="B31" s="1">
+        <v>140.059</v>
+      </c>
+      <c r="C31" s="1">
+        <v>19.3078</v>
+      </c>
+      <c r="D31" s="1">
+        <v>47.1636</v>
+      </c>
+      <c r="E31" s="1">
+        <v>83.8299</v>
+      </c>
+      <c r="F31" s="1">
+        <v>174.963</v>
+      </c>
+      <c r="G31" s="1">
         <v>17.0387</v>
       </c>
-      <c r="G18" s="1">
+      <c r="H31" s="1">
         <v>16.2094</v>
       </c>
-      <c r="L18" s="1">
-        <v>13.0135</v>
-      </c>
-      <c r="M18" s="1">
-        <v>24.0312</v>
-      </c>
-    </row>
-    <row r="19" spans="3:13">
-      <c r="C19" s="1">
-        <v>94.3352</v>
-      </c>
-      <c r="D19" s="1">
-        <v>77.4431</v>
-      </c>
-      <c r="F19" s="1">
+      <c r="J31" s="1">
+        <v>93.3766</v>
+      </c>
+      <c r="K31" s="1">
+        <v>161.478</v>
+      </c>
+      <c r="L31" s="1">
+        <v>22.8967</v>
+      </c>
+      <c r="M31" s="1">
+        <v>42.1566</v>
+      </c>
+      <c r="P31" s="1">
+        <v>512</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>83.8299</v>
+      </c>
+      <c r="R31" s="1">
+        <v>174.963</v>
+      </c>
+      <c r="S31" s="1">
+        <v>93.3766</v>
+      </c>
+      <c r="T31" s="1">
+        <v>161.478</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" s="1">
+        <v>1024</v>
+      </c>
+      <c r="B32" s="1">
+        <v>1139.062</v>
+      </c>
+      <c r="C32" s="1">
+        <v>88.766</v>
+      </c>
+      <c r="D32" s="1">
+        <v>146.038</v>
+      </c>
+      <c r="E32" s="1">
+        <v>1021.04</v>
+      </c>
+      <c r="F32" s="1">
+        <v>2355.56</v>
+      </c>
+      <c r="G32" s="1">
         <v>81.5665</v>
       </c>
-      <c r="G19" s="1">
+      <c r="H32" s="1">
         <v>99.9794</v>
       </c>
-      <c r="L19" s="1">
-        <v>86.7531</v>
-      </c>
-      <c r="M19" s="1">
-        <v>90.808</v>
-      </c>
-    </row>
-    <row r="20" spans="3:13">
-      <c r="C20" s="1">
-        <v>1842.47</v>
-      </c>
-      <c r="D20" s="1">
-        <v>1742.94</v>
-      </c>
-      <c r="F20" s="1">
+      <c r="J32" s="1">
+        <v>953.412</v>
+      </c>
+      <c r="K32" s="1">
+        <v>2369.55</v>
+      </c>
+      <c r="L32" s="1">
+        <v>184.537</v>
+      </c>
+      <c r="M32" s="1">
+        <v>710.437</v>
+      </c>
+      <c r="P32" s="1">
+        <v>1024</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>1021.04</v>
+      </c>
+      <c r="R32" s="1">
+        <v>2355.56</v>
+      </c>
+      <c r="S32" s="1">
+        <v>953.412</v>
+      </c>
+      <c r="T32" s="1">
+        <v>2369.55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" s="1">
+        <v>2048</v>
+      </c>
+      <c r="B33" s="1">
+        <v>9196.672</v>
+      </c>
+      <c r="C33" s="1">
+        <v>1791</v>
+      </c>
+      <c r="D33" s="1">
+        <v>1872.93</v>
+      </c>
+      <c r="E33" s="1">
+        <v>11028.1</v>
+      </c>
+      <c r="F33" s="1">
+        <v>2248.7</v>
+      </c>
+      <c r="G33" s="1">
         <v>1747.96</v>
       </c>
-      <c r="G20" s="1">
+      <c r="H33" s="1">
         <v>1865.19</v>
       </c>
-      <c r="L20" s="1">
-        <v>1516.68</v>
-      </c>
-      <c r="M20" s="1">
-        <v>1396.59</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8">
-      <c r="A23" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8">
-      <c r="A24" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B24" s="1" t="s">
+      <c r="J33" s="1">
+        <v>10711.1</v>
+      </c>
+      <c r="K33" s="1">
+        <v>22562.7</v>
+      </c>
+      <c r="L33" s="1">
+        <v>4448.07</v>
+      </c>
+      <c r="M33" s="1">
+        <v>11928.3</v>
+      </c>
+      <c r="P33" s="1">
+        <v>2048</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>11028.1</v>
+      </c>
+      <c r="R33" s="1">
+        <v>2248.7</v>
+      </c>
+      <c r="S33" s="1">
+        <v>10711.1</v>
+      </c>
+      <c r="T33" s="1">
+        <v>22562.7</v>
+      </c>
+    </row>
+    <row r="37" spans="6:15">
+      <c r="F37" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J37" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="K37" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="O37" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I38" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="J38" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="N38" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="O38" s="1">
+        <v>4</v>
+      </c>
+      <c r="P38" s="1">
         <v>8</v>
-      </c>
-      <c r="C24" s="1">
-        <v>4</v>
-      </c>
-      <c r="D24" s="1">
-        <v>4</v>
-      </c>
-      <c r="E24" s="1">
-        <v>4</v>
-      </c>
-      <c r="F24" s="1">
-        <v>8</v>
-      </c>
-      <c r="G24" s="1">
-        <v>8</v>
-      </c>
-      <c r="H24" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
-      <c r="A25" s="1">
-        <v>32</v>
-      </c>
-      <c r="B25" s="1">
-        <v>0.04</v>
-      </c>
-      <c r="C25" s="1">
-        <v>0.2771</v>
-      </c>
-      <c r="D25" s="1">
-        <v>0.2757</v>
-      </c>
-      <c r="E25" s="1">
-        <v>0.23209</v>
-      </c>
-      <c r="F25" s="1">
-        <v>0.13024</v>
-      </c>
-      <c r="G25" s="1">
-        <v>0.06359</v>
-      </c>
-      <c r="H25" s="1">
-        <v>0.61467</v>
-      </c>
-    </row>
-    <row r="26" spans="1:8">
-      <c r="A26" s="1">
-        <v>64</v>
-      </c>
-      <c r="B26" s="1">
-        <v>0.325</v>
-      </c>
-      <c r="C26" s="1">
-        <v>0.5358</v>
-      </c>
-      <c r="D26" s="1">
-        <v>0.5418</v>
-      </c>
-      <c r="E26" s="1">
-        <v>0.37538</v>
-      </c>
-      <c r="F26" s="1">
-        <v>0.1815</v>
-      </c>
-      <c r="G26" s="1">
-        <v>0.08335</v>
-      </c>
-      <c r="H26" s="1">
-        <v>1.00327</v>
-      </c>
-    </row>
-    <row r="27" spans="1:8">
-      <c r="A27" s="1">
-        <v>128</v>
-      </c>
-      <c r="B27" s="1">
-        <v>2.188</v>
-      </c>
-      <c r="C27" s="1">
-        <v>0.22534</v>
-      </c>
-      <c r="D27" s="1">
-        <v>0.21872</v>
-      </c>
-      <c r="E27" s="1">
-        <v>0.76672</v>
-      </c>
-      <c r="F27" s="1">
-        <v>0.27678</v>
-      </c>
-      <c r="G27" s="1">
-        <v>0.24171</v>
-      </c>
-      <c r="H27" s="1">
-        <v>1.85688</v>
-      </c>
-    </row>
-    <row r="28" spans="1:8">
-      <c r="A28" s="1">
-        <v>256</v>
-      </c>
-      <c r="B28" s="1">
-        <v>15.568</v>
-      </c>
-      <c r="C28" s="1">
-        <v>1.23964</v>
-      </c>
-      <c r="D28" s="1">
-        <v>0.90217</v>
-      </c>
-      <c r="E28" s="1">
-        <v>2.23544</v>
-      </c>
-      <c r="F28" s="1">
-        <v>1.44167</v>
-      </c>
-      <c r="G28" s="1">
-        <v>1.16907</v>
-      </c>
-      <c r="H28" s="1">
-        <v>3.78825</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8">
-      <c r="A29" s="1">
-        <v>512</v>
-      </c>
-      <c r="B29" s="1">
-        <v>140.059</v>
-      </c>
-      <c r="C29" s="1">
-        <v>13.4963</v>
-      </c>
-      <c r="D29" s="1">
-        <v>13.733</v>
-      </c>
-      <c r="E29" s="1">
-        <v>15.0099</v>
-      </c>
-      <c r="F29" s="1">
-        <v>17.2328</v>
-      </c>
-      <c r="G29" s="1">
-        <v>11.5401</v>
-      </c>
-      <c r="H29" s="1">
-        <v>16.1673</v>
-      </c>
-    </row>
-    <row r="30" spans="1:8">
-      <c r="A30" s="1">
-        <v>1024</v>
-      </c>
-      <c r="B30" s="1">
-        <v>1139.062</v>
-      </c>
-      <c r="C30" s="1">
-        <v>91.4767</v>
-      </c>
-      <c r="D30" s="1">
-        <v>84.2777</v>
-      </c>
-      <c r="E30" s="1">
-        <v>87.6803</v>
-      </c>
-      <c r="F30" s="1">
-        <v>77.4909</v>
-      </c>
-      <c r="G30" s="1">
-        <v>63.9211</v>
-      </c>
-      <c r="H30" s="1">
-        <v>92.4931</v>
-      </c>
-    </row>
-    <row r="31" spans="1:8">
-      <c r="A31" s="1">
-        <v>2048</v>
-      </c>
-      <c r="B31" s="1">
-        <v>9196.672</v>
-      </c>
-      <c r="C31" s="1">
-        <v>1667.25</v>
-      </c>
-      <c r="D31" s="1">
-        <v>1244.76</v>
-      </c>
-      <c r="E31" s="1">
-        <v>1542.64</v>
-      </c>
-      <c r="F31" s="1">
-        <v>1412.93</v>
-      </c>
-      <c r="G31" s="1">
-        <v>972.468</v>
-      </c>
-      <c r="H31" s="1">
-        <v>1488.27</v>
-      </c>
-    </row>
-    <row r="35" spans="6:15">
-      <c r="F35" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="J35" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K35" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="O35" s="1" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="36" spans="1:16">
-      <c r="A36" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B36" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D36" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="I36" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="J36" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="K36" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="N36" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="O36" s="1">
-        <v>4</v>
-      </c>
-      <c r="P36" s="1">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="37" spans="1:16">
-      <c r="A37" s="1">
-        <v>32</v>
-      </c>
-      <c r="B37" s="1">
-        <v>1.694</v>
-      </c>
-      <c r="C37" s="1">
-        <v>3.193</v>
-      </c>
-      <c r="D37" s="1">
-        <v>5.945</v>
-      </c>
-      <c r="E37" s="1">
-        <v>2.72004</v>
-      </c>
-      <c r="F37" s="1">
-        <v>2.26576</v>
-      </c>
-      <c r="G37" s="1">
-        <v>2.01642</v>
-      </c>
-      <c r="I37" s="1">
-        <v>2.63253</v>
-      </c>
-      <c r="J37" s="1">
-        <v>2.21323</v>
-      </c>
-      <c r="K37" s="1">
-        <v>2.07811</v>
-      </c>
-      <c r="N37" s="1">
-        <v>0.026</v>
-      </c>
-      <c r="O37" s="1">
-        <v>0.04207</v>
-      </c>
-      <c r="P37" s="1">
-        <v>0.12044</v>
-      </c>
-    </row>
-    <row r="38" spans="1:16">
-      <c r="A38" s="1">
-        <v>64</v>
-      </c>
-      <c r="B38" s="1">
-        <v>3.451</v>
-      </c>
-      <c r="C38" s="1">
-        <v>6.01</v>
-      </c>
-      <c r="D38" s="1">
-        <v>11.808</v>
-      </c>
-      <c r="E38" s="1">
-        <v>5.15844</v>
-      </c>
-      <c r="F38" s="1">
-        <v>4.45805</v>
-      </c>
-      <c r="G38" s="1">
-        <v>4.15376</v>
-      </c>
-      <c r="I38" s="1">
-        <v>5.13586</v>
-      </c>
-      <c r="J38" s="1">
-        <v>4.34707</v>
-      </c>
-      <c r="K38" s="1">
-        <v>4.153</v>
-      </c>
-      <c r="N38" s="1">
-        <v>0.165</v>
-      </c>
-      <c r="O38" s="1">
-        <v>0.07737</v>
-      </c>
-      <c r="P38" s="1">
-        <v>0.20935</v>
       </c>
     </row>
     <row r="39" spans="1:16">
       <c r="A39" s="1">
-        <v>128</v>
+        <v>32</v>
       </c>
       <c r="B39" s="1">
-        <v>5.992</v>
+        <v>1.694</v>
       </c>
       <c r="C39" s="1">
-        <v>11.189</v>
+        <v>3.193</v>
       </c>
       <c r="D39" s="1">
-        <v>22.32</v>
+        <v>5.945</v>
       </c>
       <c r="E39" s="1">
-        <v>10.7541</v>
+        <v>2.72004</v>
       </c>
       <c r="F39" s="1">
-        <v>9.24762</v>
+        <v>2.26576</v>
       </c>
       <c r="G39" s="1">
-        <v>8.32174</v>
+        <v>2.01642</v>
       </c>
       <c r="I39" s="1">
-        <v>12.493</v>
+        <v>2.63253</v>
       </c>
       <c r="J39" s="1">
-        <v>9.09241</v>
+        <v>2.21323</v>
       </c>
       <c r="K39" s="1">
-        <v>8.3347</v>
+        <v>2.07811</v>
       </c>
       <c r="N39" s="1">
-        <v>1.17</v>
+        <v>0.026</v>
       </c>
       <c r="O39" s="1">
-        <v>0.1739</v>
+        <v>0.04207</v>
       </c>
       <c r="P39" s="1">
-        <v>0.33273</v>
+        <v>0.12044</v>
       </c>
     </row>
     <row r="40" spans="1:16">
       <c r="A40" s="1">
-        <v>256</v>
+        <v>64</v>
       </c>
       <c r="B40" s="1">
-        <v>12.155</v>
+        <v>3.451</v>
       </c>
       <c r="C40" s="1">
-        <v>23.393</v>
+        <v>6.01</v>
       </c>
       <c r="D40" s="1">
-        <v>46.459</v>
+        <v>11.808</v>
       </c>
       <c r="E40" s="1">
-        <v>24.6882</v>
+        <v>5.15844</v>
       </c>
       <c r="F40" s="1">
-        <v>20.688</v>
+        <v>4.45805</v>
       </c>
       <c r="G40" s="1">
-        <v>17.0083</v>
+        <v>4.15376</v>
       </c>
       <c r="I40" s="1">
-        <v>26.7355</v>
+        <v>5.13586</v>
       </c>
       <c r="J40" s="1">
-        <v>20.4695</v>
+        <v>4.34707</v>
       </c>
       <c r="K40" s="1">
-        <v>19.1948</v>
+        <v>4.153</v>
       </c>
       <c r="N40" s="1">
-        <v>8.959</v>
+        <v>0.165</v>
       </c>
       <c r="O40" s="1">
-        <v>0.83729</v>
+        <v>0.07737</v>
       </c>
       <c r="P40" s="1">
-        <v>0.92847</v>
+        <v>0.20935</v>
       </c>
     </row>
     <row r="41" spans="1:16">
       <c r="A41" s="1">
-        <v>512</v>
+        <v>128</v>
       </c>
       <c r="B41" s="1">
-        <v>32.497</v>
+        <v>5.992</v>
       </c>
       <c r="C41" s="1">
-        <v>46.415</v>
+        <v>11.189</v>
       </c>
       <c r="D41" s="1">
-        <v>88.968</v>
+        <v>22.32</v>
       </c>
       <c r="E41" s="1">
-        <v>63.6434</v>
+        <v>10.7541</v>
       </c>
       <c r="F41" s="1">
-        <v>59.5632</v>
+        <v>9.24762</v>
       </c>
       <c r="G41" s="1">
-        <v>57.7311</v>
+        <v>8.32174</v>
       </c>
       <c r="I41" s="1">
-        <v>59.9733</v>
+        <v>12.493</v>
       </c>
       <c r="J41" s="1">
-        <v>59.2489</v>
+        <v>9.09241</v>
       </c>
       <c r="K41" s="1">
-        <v>74.433</v>
+        <v>8.3347</v>
       </c>
       <c r="N41" s="1">
-        <v>70.05</v>
+        <v>1.17</v>
       </c>
       <c r="O41" s="1">
-        <v>10.1631</v>
+        <v>0.1739</v>
       </c>
       <c r="P41" s="1">
-        <v>22.4934</v>
+        <v>0.33273</v>
       </c>
     </row>
     <row r="42" spans="1:16">
       <c r="A42" s="1">
-        <v>1024</v>
+        <v>256</v>
       </c>
       <c r="B42" s="1">
-        <v>123.953</v>
+        <v>12.155</v>
       </c>
       <c r="C42" s="1">
-        <v>120.592</v>
+        <v>23.393</v>
       </c>
       <c r="D42" s="1">
-        <v>193.422</v>
+        <v>46.459</v>
       </c>
       <c r="E42" s="1">
-        <v>139.497</v>
+        <v>24.6882</v>
       </c>
       <c r="F42" s="1">
-        <v>165.072</v>
+        <v>20.688</v>
       </c>
       <c r="G42" s="1">
-        <v>135.342</v>
+        <v>17.0083</v>
       </c>
       <c r="I42" s="1">
-        <v>146.901</v>
+        <v>26.7355</v>
       </c>
       <c r="J42" s="1">
-        <v>147.553</v>
+        <v>20.4695</v>
       </c>
       <c r="K42" s="1">
-        <v>172.209</v>
+        <v>19.1948</v>
       </c>
       <c r="N42" s="1">
-        <v>522.676</v>
+        <v>8.959</v>
       </c>
       <c r="O42" s="1">
-        <v>63.8206</v>
+        <v>0.83729</v>
       </c>
       <c r="P42" s="1">
-        <v>71.8745</v>
+        <v>0.92847</v>
       </c>
     </row>
     <row r="43" spans="1:16">
       <c r="A43" s="1">
+        <v>512</v>
+      </c>
+      <c r="B43" s="1">
+        <v>32.497</v>
+      </c>
+      <c r="C43" s="1">
+        <v>46.415</v>
+      </c>
+      <c r="D43" s="1">
+        <v>88.968</v>
+      </c>
+      <c r="E43" s="1">
+        <v>63.6434</v>
+      </c>
+      <c r="F43" s="1">
+        <v>59.5632</v>
+      </c>
+      <c r="G43" s="1">
+        <v>57.7311</v>
+      </c>
+      <c r="I43" s="1">
+        <v>59.9733</v>
+      </c>
+      <c r="J43" s="1">
+        <v>59.2489</v>
+      </c>
+      <c r="K43" s="1">
+        <v>74.433</v>
+      </c>
+      <c r="N43" s="1">
+        <v>70.05</v>
+      </c>
+      <c r="O43" s="1">
+        <v>10.1631</v>
+      </c>
+      <c r="P43" s="1">
+        <v>22.4934</v>
+      </c>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44" s="1">
+        <v>1024</v>
+      </c>
+      <c r="B44" s="1">
+        <v>123.953</v>
+      </c>
+      <c r="C44" s="1">
+        <v>120.592</v>
+      </c>
+      <c r="D44" s="1">
+        <v>193.422</v>
+      </c>
+      <c r="E44" s="1">
+        <v>139.497</v>
+      </c>
+      <c r="F44" s="1">
+        <v>165.072</v>
+      </c>
+      <c r="G44" s="1">
+        <v>135.342</v>
+      </c>
+      <c r="I44" s="1">
+        <v>146.901</v>
+      </c>
+      <c r="J44" s="1">
+        <v>147.553</v>
+      </c>
+      <c r="K44" s="1">
+        <v>172.209</v>
+      </c>
+      <c r="N44" s="1">
+        <v>522.676</v>
+      </c>
+      <c r="O44" s="1">
+        <v>63.8206</v>
+      </c>
+      <c r="P44" s="1">
+        <v>71.8745</v>
+      </c>
+    </row>
+    <row r="45" spans="1:16">
+      <c r="A45" s="1">
         <v>2048</v>
       </c>
-      <c r="B43" s="1">
+      <c r="B45" s="1">
         <v>1637.803</v>
       </c>
-      <c r="C43" s="3">
+      <c r="C45" s="3">
         <v>1500.11</v>
       </c>
-      <c r="D43" s="1">
+      <c r="D45" s="1">
         <v>1672.463</v>
       </c>
-      <c r="E43" s="1">
+      <c r="E45" s="1">
         <v>1649.82</v>
       </c>
-      <c r="F43" s="1">
+      <c r="F45" s="1">
         <v>1653.09</v>
       </c>
-      <c r="G43" s="1">
+      <c r="G45" s="1">
         <v>1532.71</v>
       </c>
-      <c r="I43" s="1">
+      <c r="I45" s="1">
         <v>1664.71</v>
       </c>
-      <c r="J43" s="1">
+      <c r="J45" s="1">
         <v>1533.25</v>
       </c>
-      <c r="K43" s="1">
+      <c r="K45" s="1">
         <v>1565.7</v>
       </c>
-      <c r="N43" s="1">
+      <c r="N45" s="1">
         <v>4362.003</v>
       </c>
-      <c r="O43" s="1">
+      <c r="O45" s="1">
         <v>1381.85</v>
       </c>
-      <c r="P43" s="1">
+      <c r="P45" s="1">
         <v>1345.65</v>
       </c>
     </row>
-    <row r="45" spans="7:7">
-      <c r="G45" s="1" t="s">
+    <row r="47" spans="5:5">
+      <c r="E47" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="48" spans="3:14">
+      <c r="C48" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F48" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G48" s="1" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="46" spans="7:7">
-      <c r="G46" s="1">
+      <c r="M48" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N48" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="49" spans="3:15">
+      <c r="C49" s="1">
+        <v>32</v>
+      </c>
+      <c r="D49" s="1">
+        <v>2.72004</v>
+      </c>
+      <c r="E49" s="1">
+        <v>2.26576</v>
+      </c>
+      <c r="F49" s="1">
+        <v>2.01642</v>
+      </c>
+      <c r="G49" s="1">
         <v>3.90295</v>
       </c>
-    </row>
-    <row r="47" spans="7:7">
-      <c r="G47" s="1">
+      <c r="M49" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N49" s="1">
+        <v>4</v>
+      </c>
+      <c r="O49" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="50" spans="3:15">
+      <c r="C50" s="1">
+        <v>64</v>
+      </c>
+      <c r="D50" s="1">
+        <v>5.15844</v>
+      </c>
+      <c r="E50" s="1">
+        <v>4.45805</v>
+      </c>
+      <c r="F50" s="1">
+        <v>4.15376</v>
+      </c>
+      <c r="G50" s="1">
         <v>9.55196</v>
       </c>
-    </row>
-    <row r="48" spans="7:7">
-      <c r="G48" s="1">
+      <c r="M50" s="1">
+        <v>32</v>
+      </c>
+      <c r="N50" s="1">
+        <v>0.0748</v>
+      </c>
+      <c r="O50" s="1">
+        <v>0.7304</v>
+      </c>
+    </row>
+    <row r="51" spans="3:15">
+      <c r="C51" s="1">
+        <v>128</v>
+      </c>
+      <c r="D51" s="1">
+        <v>10.7541</v>
+      </c>
+      <c r="E51" s="1">
+        <v>9.24762</v>
+      </c>
+      <c r="F51" s="1">
+        <v>8.32174</v>
+      </c>
+      <c r="G51" s="1">
         <v>16.2785</v>
       </c>
-    </row>
-    <row r="49" spans="7:7">
-      <c r="G49" s="1">
+      <c r="M51" s="1">
+        <v>64</v>
+      </c>
+      <c r="N51" s="1">
+        <v>0.209</v>
+      </c>
+      <c r="O51" s="1">
+        <v>0.5936</v>
+      </c>
+    </row>
+    <row r="52" spans="3:15">
+      <c r="C52" s="1">
+        <v>256</v>
+      </c>
+      <c r="D52" s="1">
+        <v>24.6882</v>
+      </c>
+      <c r="E52" s="1">
+        <v>20.688</v>
+      </c>
+      <c r="F52" s="1">
+        <v>17.0083</v>
+      </c>
+      <c r="G52" s="1">
         <v>39.6896</v>
       </c>
-    </row>
-    <row r="50" spans="7:7">
-      <c r="G50" s="1">
+      <c r="M52" s="1">
+        <v>128</v>
+      </c>
+      <c r="N52" s="1">
+        <v>0.5811</v>
+      </c>
+      <c r="O52" s="1">
+        <v>1.082</v>
+      </c>
+    </row>
+    <row r="53" spans="3:15">
+      <c r="C53" s="1">
+        <v>512</v>
+      </c>
+      <c r="D53" s="1">
+        <v>63.6434</v>
+      </c>
+      <c r="E53" s="1">
+        <v>59.5632</v>
+      </c>
+      <c r="F53" s="1">
+        <v>57.7311</v>
+      </c>
+      <c r="G53" s="1">
         <v>130.318</v>
       </c>
-    </row>
-    <row r="51" spans="7:7">
-      <c r="G51" s="1">
+      <c r="M53" s="1">
+        <v>256</v>
+      </c>
+      <c r="N53" s="1">
+        <v>2.1731</v>
+      </c>
+      <c r="O53" s="1">
+        <v>3.5389</v>
+      </c>
+    </row>
+    <row r="54" spans="3:15">
+      <c r="C54" s="1">
+        <v>1024</v>
+      </c>
+      <c r="D54" s="1">
+        <v>139.497</v>
+      </c>
+      <c r="E54" s="1">
+        <v>165.072</v>
+      </c>
+      <c r="F54" s="1">
+        <v>135.342</v>
+      </c>
+      <c r="G54" s="1">
         <v>278.879</v>
       </c>
-    </row>
-    <row r="52" spans="7:7">
-      <c r="G52" s="1">
+      <c r="M54" s="1">
+        <v>512</v>
+      </c>
+      <c r="N54" s="1">
+        <v>22.8967</v>
+      </c>
+      <c r="O54" s="1">
+        <v>42.1566</v>
+      </c>
+    </row>
+    <row r="55" spans="3:15">
+      <c r="C55" s="1">
+        <v>2048</v>
+      </c>
+      <c r="D55" s="1">
+        <v>1649.82</v>
+      </c>
+      <c r="E55" s="1">
+        <v>1653.09</v>
+      </c>
+      <c r="F55" s="1">
+        <v>1532.71</v>
+      </c>
+      <c r="G55" s="1">
         <v>2058.96</v>
+      </c>
+      <c r="M55" s="1">
+        <v>1024</v>
+      </c>
+      <c r="N55" s="1">
+        <v>184.537</v>
+      </c>
+      <c r="O55" s="1">
+        <v>710.437</v>
+      </c>
+    </row>
+    <row r="56" spans="13:15">
+      <c r="M56" s="1">
+        <v>2048</v>
+      </c>
+      <c r="N56" s="1">
+        <v>4448.07</v>
+      </c>
+      <c r="O56" s="1">
+        <v>11928.3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C58" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E58" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59" s="1">
+        <v>32</v>
+      </c>
+      <c r="B59" s="1">
+        <v>0.0456</v>
+      </c>
+      <c r="C59" s="1">
+        <v>0.04207</v>
+      </c>
+      <c r="D59" s="1">
+        <v>2.26576</v>
+      </c>
+      <c r="E59" s="1">
+        <v>2.21323</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60" s="1">
+        <v>64</v>
+      </c>
+      <c r="B60" s="1">
+        <v>0.07717</v>
+      </c>
+      <c r="C60" s="1">
+        <v>0.07737</v>
+      </c>
+      <c r="D60" s="1">
+        <v>4.45805</v>
+      </c>
+      <c r="E60" s="1">
+        <v>4.34707</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61" s="1">
+        <v>128</v>
+      </c>
+      <c r="B61" s="1">
+        <v>0.21366</v>
+      </c>
+      <c r="C61" s="1">
+        <v>0.1739</v>
+      </c>
+      <c r="D61" s="1">
+        <v>9.24762</v>
+      </c>
+      <c r="E61" s="1">
+        <v>9.09241</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62" s="1">
+        <v>256</v>
+      </c>
+      <c r="B62" s="1">
+        <v>1.18161</v>
+      </c>
+      <c r="C62" s="1">
+        <v>0.83729</v>
+      </c>
+      <c r="D62" s="1">
+        <v>20.688</v>
+      </c>
+      <c r="E62" s="1">
+        <v>20.4695</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63" s="1">
+        <v>512</v>
+      </c>
+      <c r="B63" s="1">
+        <v>13.0117</v>
+      </c>
+      <c r="C63" s="1">
+        <v>10.1631</v>
+      </c>
+      <c r="D63" s="1">
+        <v>59.5632</v>
+      </c>
+      <c r="E63" s="1">
+        <v>59.2489</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64" s="1">
+        <v>1024</v>
+      </c>
+      <c r="B64" s="1">
+        <v>80.6078</v>
+      </c>
+      <c r="C64" s="1">
+        <v>63.8206</v>
+      </c>
+      <c r="D64" s="1">
+        <v>165.072</v>
+      </c>
+      <c r="E64" s="1">
+        <v>147.553</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65" s="1">
+        <v>2048</v>
+      </c>
+      <c r="B65" s="1">
+        <v>1644.52</v>
+      </c>
+      <c r="C65" s="1">
+        <v>1381.85</v>
+      </c>
+      <c r="D65" s="1">
+        <v>1653.09</v>
+      </c>
+      <c r="E65" s="1">
+        <v>1533.25</v>
       </c>
     </row>
   </sheetData>
@@ -2217,7 +2850,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
